--- a/CPU设计表.xlsx
+++ b/CPU设计表.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="815" uniqueCount="445">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="446">
   <si>
     <t>助记符</t>
   </si>
@@ -905,6 +905,13 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>sll,</t>
     </r>
     <r>
@@ -976,6 +983,9 @@
   </si>
   <si>
     <t>sllv</t>
+  </si>
+  <si>
+    <t>sltu</t>
   </si>
   <si>
     <t>alu_op_i</t>
@@ -2713,12 +2723,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="46">
+  <fonts count="47">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2850,6 +2860,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <color theme="0" tint="-0.25"/>
       <name val="宋体"/>
@@ -2892,14 +2909,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2913,7 +2945,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2927,19 +2967,19 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2990,15 +3030,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -3008,20 +3039,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -3076,66 +3093,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -3148,7 +3105,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3160,37 +3183,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3208,7 +3225,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3226,31 +3249,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3362,6 +3379,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -3373,6 +3399,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3401,15 +3442,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -3420,21 +3452,6 @@
         <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -3456,10 +3473,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="12" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3468,133 +3485,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="26" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="16" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="26" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="25" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="40" fillId="25" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="42" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3737,85 +3754,85 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="1">
@@ -5135,7 +5152,7 @@
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
@@ -5294,23 +5311,31 @@
       </c>
     </row>
     <row r="11" ht="15.6" spans="1:4">
-      <c r="A11" s="46" t="s">
+      <c r="A11" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="B11" s="47">
+      <c r="B11" s="46">
         <v>1001</v>
       </c>
-      <c r="C11" s="47">
+      <c r="C11" s="46">
         <v>9</v>
       </c>
-      <c r="D11" s="47" t="s">
+      <c r="D11" s="46" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="12" ht="15.6" spans="2:4">
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="27"/>
+    <row r="12" ht="28.2" spans="1:5">
+      <c r="A12" s="47" t="s">
+        <v>155</v>
+      </c>
+      <c r="B12" s="47">
+        <v>1010</v>
+      </c>
+      <c r="C12" s="47">
+        <v>10</v>
+      </c>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
     </row>
     <row r="13" ht="15.6" spans="4:4">
       <c r="D13" s="33"/>
@@ -5374,15 +5399,15 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="18.1111111111111" customWidth="1"/>
     <col min="2" max="2" width="18.1111111111111" hidden="1" customWidth="1"/>
@@ -5402,15 +5427,15 @@
         <v>18</v>
       </c>
       <c r="D1" s="33" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E1" s="33" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" ht="15.6" spans="1:5">
       <c r="A2" s="33" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B2" s="38"/>
       <c r="C2" s="33"/>
@@ -5422,7 +5447,7 @@
         <v>23</v>
       </c>
       <c r="B3" s="73" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C3" s="17">
         <v>100100</v>
@@ -5439,7 +5464,7 @@
         <v>27</v>
       </c>
       <c r="B4" s="73" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C4" s="17">
         <v>100101</v>
@@ -5454,7 +5479,7 @@
         <v>31</v>
       </c>
       <c r="B5" s="73" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C5" s="17">
         <v>100110</v>
@@ -5466,13 +5491,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="B6" s="73" t="s">
         <v>159</v>
       </c>
-      <c r="B6" s="73" t="s">
-        <v>158</v>
-      </c>
       <c r="C6" s="74" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D6" s="17"/>
       <c r="E6" s="17" t="s">
@@ -5484,7 +5509,7 @@
         <v>39</v>
       </c>
       <c r="B7" s="73" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C7" s="74" t="s">
         <v>45</v>
@@ -5499,14 +5524,14 @@
         <v>154</v>
       </c>
       <c r="B8" s="73" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C8" s="74" t="s">
         <v>95</v>
       </c>
       <c r="D8" s="17"/>
       <c r="E8" s="44" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -5514,7 +5539,7 @@
         <v>19</v>
       </c>
       <c r="B9" s="73" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C9" s="17">
         <v>100001</v>
@@ -5524,188 +5549,195 @@
         <v>143</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="8" t="s">
+    <row r="10" ht="20.4" spans="1:6">
+      <c r="A10" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="B10" s="43"/>
+      <c r="C10" s="16">
+        <v>101011</v>
+      </c>
+      <c r="D10" s="17"/>
+      <c r="E10" s="16">
+        <v>1010</v>
+      </c>
+      <c r="F10" s="16"/>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="B10" s="73" t="s">
+      <c r="B11" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="C10" s="75" t="s">
+      <c r="C11" s="75" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="17" t="s">
+      <c r="D11" s="17" t="s">
         <v>130</v>
       </c>
-      <c r="E10" s="17" t="s">
+      <c r="E11" s="17" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="11" ht="15.6" spans="1:5">
-      <c r="A11" s="33" t="s">
-        <v>161</v>
-      </c>
-      <c r="B11" s="43"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="B12" s="73" t="s">
-        <v>76</v>
-      </c>
-      <c r="C12" s="8" t="s">
+    <row r="12" ht="15.6" spans="1:5">
+      <c r="A12" s="33" t="s">
         <v>162</v>
       </c>
-      <c r="D12" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>150</v>
-      </c>
+      <c r="B12" s="43"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="8" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="B13" s="73" t="s">
-        <v>61</v>
+        <v>76</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>127</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="8" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="B14" s="73" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="8" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B15" s="73" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B16" s="73" t="s">
+        <v>71</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="B16" s="73" t="s">
-        <v>164</v>
-      </c>
-      <c r="C16" s="8" t="s">
-        <v>162</v>
-      </c>
       <c r="D16" s="17" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="8" t="s">
-        <v>54</v>
+        <v>164</v>
       </c>
       <c r="B17" s="73" t="s">
-        <v>55</v>
+        <v>165</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="D17" s="17"/>
-      <c r="E17" s="17"/>
+        <v>163</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B18" s="43">
-        <v>100000</v>
+        <v>54</v>
+      </c>
+      <c r="B18" s="73" t="s">
+        <v>55</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D18" s="17"/>
       <c r="E18" s="17"/>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B19" s="43">
-        <v>100011</v>
+        <v>100000</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="17"/>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="8" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B20" s="43">
-        <v>101000</v>
+        <v>100011</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D20" s="17"/>
       <c r="E20" s="17"/>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B21" s="43">
-        <v>101011</v>
+        <v>101000</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D21" s="17"/>
       <c r="E21" s="17"/>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
+      <c r="A22" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B22" s="43">
+        <v>101011</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="D22" s="17"/>
+      <c r="E22" s="17"/>
     </row>
     <row r="23" spans="1:5">
       <c r="A23" s="8"/>
@@ -5749,11 +5781,18 @@
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
     </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="8"/>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="D3:D9"/>
-    <mergeCell ref="D16:D21"/>
-    <mergeCell ref="E16:E21"/>
+    <mergeCell ref="D3:D10"/>
+    <mergeCell ref="D17:D22"/>
+    <mergeCell ref="E17:E22"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -5789,22 +5828,22 @@
   <sheetData>
     <row r="1" spans="5:15">
       <c r="E1" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F1" s="8"/>
       <c r="G1" s="8"/>
       <c r="H1" s="8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="I1" s="8"/>
       <c r="J1" s="8" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="K1" s="8"/>
       <c r="L1" s="8"/>
       <c r="M1" s="8"/>
       <c r="N1" s="8" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O1" s="42"/>
     </row>
@@ -5820,34 +5859,34 @@
       </c>
       <c r="D2" s="33"/>
       <c r="E2" s="27" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="F2" s="27" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G2" s="35" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="I2" s="27" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="J2" s="25" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="K2" s="25" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L2" s="25" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M2" s="25" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N2" s="27" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="O2" s="25"/>
       <c r="P2" s="25"/>
@@ -5855,7 +5894,7 @@
     </row>
     <row r="3" ht="15.6" spans="1:13">
       <c r="A3" s="33" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B3" s="33"/>
       <c r="C3" s="34"/>
@@ -5874,7 +5913,7 @@
         <v>23</v>
       </c>
       <c r="B4" s="76" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C4" s="34">
         <v>100100</v>
@@ -5884,31 +5923,31 @@
         <v>16</v>
       </c>
       <c r="F4" s="27" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G4" s="34" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H4" s="36" t="s">
         <v>127</v>
       </c>
       <c r="I4" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="J4" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="K4" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="J4" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="K4" s="27" t="s">
-        <v>180</v>
-      </c>
       <c r="L4" s="27" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M4" s="27" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N4" s="27" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O4" s="27"/>
       <c r="P4" s="27"/>
@@ -5962,11 +6001,11 @@
     </row>
     <row r="7" ht="15.6" spans="1:17">
       <c r="A7" s="27" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B7" s="27"/>
       <c r="C7" s="77" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D7" s="27"/>
       <c r="E7" s="27"/>
@@ -6067,31 +6106,31 @@
         <v>16</v>
       </c>
       <c r="F11" s="27" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G11" s="34" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H11" s="36" t="s">
         <v>130</v>
       </c>
       <c r="I11" s="27" t="s">
+        <v>182</v>
+      </c>
+      <c r="J11" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="K11" s="27" t="s">
         <v>181</v>
       </c>
-      <c r="J11" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="K11" s="27" t="s">
-        <v>180</v>
-      </c>
       <c r="L11" s="27" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M11" s="27" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="N11" s="27" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O11" s="27"/>
       <c r="P11" s="27"/>
@@ -6099,7 +6138,7 @@
     </row>
     <row r="12" ht="15.6" spans="1:17">
       <c r="A12" s="33" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C12" s="34"/>
       <c r="E12" s="27"/>
@@ -6123,37 +6162,37 @@
         <v>76</v>
       </c>
       <c r="C13" s="34" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E13" s="27" t="s">
         <v>15</v>
       </c>
       <c r="F13" s="27" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G13" s="34" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H13" s="36" t="s">
         <v>133</v>
       </c>
       <c r="I13" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="J13" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="K13" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="L13" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="M13" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="N13" s="27" t="s">
         <v>185</v>
-      </c>
-      <c r="J13" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="K13" s="27" t="s">
-        <v>180</v>
-      </c>
-      <c r="L13" s="27" t="s">
-        <v>180</v>
-      </c>
-      <c r="M13" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="N13" s="27" t="s">
-        <v>184</v>
       </c>
       <c r="O13" s="27"/>
       <c r="P13" s="27"/>
@@ -6171,31 +6210,31 @@
         <v>15</v>
       </c>
       <c r="F14" s="27" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G14" s="34" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H14" s="36" t="s">
         <v>136</v>
       </c>
       <c r="I14" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="J14" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="K14" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="L14" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="M14" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="N14" s="27" t="s">
         <v>185</v>
-      </c>
-      <c r="J14" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="K14" s="27" t="s">
-        <v>180</v>
-      </c>
-      <c r="L14" s="27" t="s">
-        <v>180</v>
-      </c>
-      <c r="M14" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="N14" s="27" t="s">
-        <v>184</v>
       </c>
       <c r="O14" s="27"/>
       <c r="P14" s="27"/>
@@ -6213,31 +6252,31 @@
         <v>15</v>
       </c>
       <c r="F15" s="27" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G15" s="34" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H15" s="36" t="s">
         <v>140</v>
       </c>
       <c r="I15" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="J15" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="K15" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="L15" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="M15" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="N15" s="27" t="s">
         <v>185</v>
-      </c>
-      <c r="J15" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="K15" s="27" t="s">
-        <v>180</v>
-      </c>
-      <c r="L15" s="27" t="s">
-        <v>180</v>
-      </c>
-      <c r="M15" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="N15" s="27" t="s">
-        <v>184</v>
       </c>
       <c r="O15" s="27"/>
       <c r="P15" s="27"/>
@@ -6255,31 +6294,31 @@
         <v>15</v>
       </c>
       <c r="F16" s="27" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G16" s="34" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H16" s="36" t="s">
         <v>143</v>
       </c>
       <c r="I16" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="J16" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="K16" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="L16" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="M16" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="N16" s="27" t="s">
         <v>185</v>
-      </c>
-      <c r="J16" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="K16" s="27" t="s">
-        <v>180</v>
-      </c>
-      <c r="L16" s="27" t="s">
-        <v>180</v>
-      </c>
-      <c r="M16" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="N16" s="27" t="s">
-        <v>184</v>
       </c>
       <c r="O16" s="27"/>
       <c r="P16" s="27"/>
@@ -6287,41 +6326,41 @@
     </row>
     <row r="17" ht="15.6" spans="1:17">
       <c r="A17" s="27" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B17" s="76" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C17" s="34"/>
       <c r="E17" s="27" t="s">
         <v>15</v>
       </c>
       <c r="F17" s="27" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G17" s="34" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H17" s="36" t="s">
         <v>147</v>
       </c>
       <c r="I17" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="J17" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="K17" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="L17" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="M17" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="N17" s="27" t="s">
         <v>185</v>
-      </c>
-      <c r="J17" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="K17" s="27" t="s">
-        <v>180</v>
-      </c>
-      <c r="L17" s="27" t="s">
-        <v>180</v>
-      </c>
-      <c r="M17" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="N17" s="27" t="s">
-        <v>184</v>
       </c>
       <c r="O17" s="27"/>
       <c r="P17" s="27"/>
@@ -6339,29 +6378,29 @@
         <v>15</v>
       </c>
       <c r="F18" s="27" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G18" s="34" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H18" s="36"/>
       <c r="I18" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="J18" s="27" t="s">
+        <v>183</v>
+      </c>
+      <c r="K18" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="L18" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="M18" s="27" t="s">
+        <v>184</v>
+      </c>
+      <c r="N18" s="27" t="s">
         <v>185</v>
-      </c>
-      <c r="J18" s="27" t="s">
-        <v>182</v>
-      </c>
-      <c r="K18" s="27" t="s">
-        <v>180</v>
-      </c>
-      <c r="L18" s="27" t="s">
-        <v>180</v>
-      </c>
-      <c r="M18" s="27" t="s">
-        <v>183</v>
-      </c>
-      <c r="N18" s="27" t="s">
-        <v>184</v>
       </c>
       <c r="O18" s="27"/>
       <c r="P18" s="27"/>
@@ -6379,29 +6418,29 @@
         <v>15</v>
       </c>
       <c r="F19" s="27" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G19" s="34" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H19" s="36"/>
       <c r="I19" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="J19" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="K19" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="L19" s="33" t="s">
         <v>185</v>
       </c>
-      <c r="J19" s="27" t="s">
-        <v>188</v>
-      </c>
-      <c r="K19" s="27" t="s">
-        <v>180</v>
-      </c>
-      <c r="L19" s="33" t="s">
-        <v>184</v>
-      </c>
       <c r="M19" s="27" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="N19" s="27" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O19" s="27"/>
       <c r="P19" s="27"/>
@@ -6419,29 +6458,29 @@
         <v>15</v>
       </c>
       <c r="F20" s="27" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G20" s="34" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H20" s="36"/>
       <c r="I20" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="J20" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="K20" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="L20" s="33" t="s">
         <v>185</v>
       </c>
-      <c r="J20" s="27" t="s">
+      <c r="M20" s="27" t="s">
         <v>190</v>
       </c>
-      <c r="K20" s="27" t="s">
-        <v>180</v>
-      </c>
-      <c r="L20" s="33" t="s">
-        <v>184</v>
-      </c>
-      <c r="M20" s="27" t="s">
-        <v>189</v>
-      </c>
       <c r="N20" s="27" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="O20" s="27"/>
       <c r="P20" s="27"/>
@@ -6459,29 +6498,29 @@
         <v>15</v>
       </c>
       <c r="F21" s="27" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G21" s="34" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H21" s="36"/>
       <c r="I21" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="J21" s="27" t="s">
+        <v>189</v>
+      </c>
+      <c r="K21" s="33" t="s">
         <v>185</v>
       </c>
-      <c r="J21" s="27" t="s">
-        <v>188</v>
-      </c>
-      <c r="K21" s="33" t="s">
+      <c r="L21" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="M21" s="27" t="s">
         <v>184</v>
       </c>
-      <c r="L21" s="27" t="s">
-        <v>180</v>
-      </c>
-      <c r="M21" s="27" t="s">
-        <v>183</v>
-      </c>
       <c r="N21" s="27" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O21" s="27"/>
       <c r="P21" s="27"/>
@@ -6499,29 +6538,29 @@
         <v>15</v>
       </c>
       <c r="F22" s="27" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G22" s="34" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H22" s="36"/>
       <c r="I22" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="J22" s="27" t="s">
+        <v>191</v>
+      </c>
+      <c r="K22" s="33" t="s">
         <v>185</v>
       </c>
-      <c r="J22" s="27" t="s">
-        <v>190</v>
-      </c>
-      <c r="K22" s="33" t="s">
+      <c r="L22" s="27" t="s">
+        <v>181</v>
+      </c>
+      <c r="M22" s="27" t="s">
         <v>184</v>
       </c>
-      <c r="L22" s="27" t="s">
-        <v>180</v>
-      </c>
-      <c r="M22" s="27" t="s">
-        <v>183</v>
-      </c>
       <c r="N22" s="27" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="O22" s="27"/>
       <c r="P22" s="27"/>
@@ -6529,7 +6568,7 @@
     </row>
     <row r="23" ht="15.6" spans="1:17">
       <c r="A23" s="38" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B23" s="39"/>
       <c r="C23" s="39"/>
@@ -6553,16 +6592,16 @@
         <v>48</v>
       </c>
       <c r="B24" s="77" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C24" s="77" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D24" s="31"/>
       <c r="E24" s="34"/>
       <c r="F24" s="34"/>
       <c r="G24" s="34" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H24" s="40"/>
       <c r="I24" s="34"/>
@@ -6577,7 +6616,7 @@
     </row>
     <row r="25" ht="15.6" spans="1:17">
       <c r="A25" s="41" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B25" s="34"/>
       <c r="C25" s="34"/>
@@ -6608,7 +6647,7 @@
       <c r="E26" s="34"/>
       <c r="F26" s="34"/>
       <c r="G26" s="34" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H26" s="34"/>
       <c r="I26" s="34"/>
@@ -6633,7 +6672,7 @@
       <c r="E27" s="34"/>
       <c r="F27" s="34"/>
       <c r="G27" s="34" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H27" s="34"/>
       <c r="I27" s="34"/>
@@ -6658,7 +6697,7 @@
       <c r="E28" s="34"/>
       <c r="F28" s="34"/>
       <c r="G28" s="34" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H28" s="34"/>
       <c r="I28" s="34"/>
@@ -6673,17 +6712,17 @@
     </row>
     <row r="29" ht="15.6" spans="1:17">
       <c r="A29" s="34" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B29" s="77" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C29" s="34"/>
       <c r="D29" s="40"/>
       <c r="E29" s="34"/>
       <c r="F29" s="34"/>
       <c r="G29" s="34" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H29" s="34"/>
       <c r="I29" s="34"/>
@@ -6698,7 +6737,7 @@
     </row>
     <row r="30" ht="15.6" spans="1:15">
       <c r="A30" s="38" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B30" s="34"/>
       <c r="C30" s="34"/>
@@ -6727,7 +6766,7 @@
       <c r="E31" s="34"/>
       <c r="F31" s="34"/>
       <c r="G31" s="34" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H31" s="34"/>
       <c r="I31" s="34"/>
@@ -6752,7 +6791,7 @@
       <c r="E32" s="34"/>
       <c r="F32" s="34"/>
       <c r="G32" s="34" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="H32" s="34"/>
       <c r="I32" s="34"/>
@@ -6892,22 +6931,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="19" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="B1" s="19" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C1" s="19" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D1" s="19" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F1" s="19" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -6920,7 +6959,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="23" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="21"/>
@@ -6930,10 +6969,10 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="20" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C4" s="20">
         <v>1</v>
@@ -6942,7 +6981,7 @@
         <v>0</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F4" s="19"/>
     </row>
@@ -6954,16 +6993,16 @@
         <v>1</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F5" s="19"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="20" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B6" s="25" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C6" s="20">
         <v>1</v>
@@ -6972,7 +7011,7 @@
         <v>0</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="F6" s="19"/>
     </row>
@@ -6984,7 +7023,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F7" s="19"/>
     </row>
@@ -6997,7 +7036,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="23" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B9" s="19"/>
       <c r="C9" s="19"/>
@@ -7007,10 +7046,10 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="19" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C10" s="20">
         <v>1</v>
@@ -7019,7 +7058,7 @@
         <v>0</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -7030,13 +7069,13 @@
         <v>1</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="19"/>
       <c r="B12" s="27" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C12" s="20">
         <v>1</v>
@@ -7045,7 +7084,7 @@
         <v>0</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F12" s="19"/>
     </row>
@@ -7057,28 +7096,28 @@
         <v>1</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F13" s="19"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="19"/>
       <c r="B14" s="8" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C14" s="20">
         <v>4</v>
       </c>
       <c r="D14" s="20"/>
       <c r="E14" s="24" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F14" s="19"/>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="19"/>
       <c r="B15" s="27" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C15" s="20">
         <v>1</v>
@@ -7087,7 +7126,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F15" s="19"/>
     </row>
@@ -7099,28 +7138,28 @@
         <v>1</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="F16" s="19"/>
     </row>
     <row r="17" ht="15.6" spans="1:6">
       <c r="A17" s="19"/>
       <c r="B17" s="27" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C17" s="20">
         <v>2</v>
       </c>
       <c r="D17" s="20"/>
       <c r="E17" s="24" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F17" s="19"/>
     </row>
     <row r="18" ht="15.6" spans="1:6">
       <c r="A18" s="19"/>
       <c r="B18" s="27" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C18" s="20">
         <v>1</v>
@@ -7129,14 +7168,14 @@
         <v>1</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="F18" s="19"/>
     </row>
     <row r="19" ht="15.6" spans="1:6">
       <c r="A19" s="19"/>
       <c r="B19" s="27" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C19" s="20">
         <v>1</v>
@@ -7145,14 +7184,14 @@
         <v>1</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="F19" s="19"/>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="19"/>
       <c r="B20" s="8" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="C20" s="20">
         <v>1</v>
@@ -7161,7 +7200,7 @@
         <v>0</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F20" s="19"/>
     </row>
@@ -7173,14 +7212,14 @@
         <v>1</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="F21" s="19"/>
     </row>
     <row r="22" ht="15.6" spans="1:6">
       <c r="A22" s="19"/>
       <c r="B22" s="27" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C22" s="20">
         <v>1</v>
@@ -7189,7 +7228,7 @@
         <v>1</v>
       </c>
       <c r="E22" s="28" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F22" s="8"/>
     </row>
@@ -7223,10 +7262,10 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="8" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C27" s="8">
         <v>1</v>
@@ -7235,7 +7274,7 @@
         <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="F27" s="8"/>
     </row>
@@ -7247,16 +7286,16 @@
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="F28" s="8"/>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="8" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C29" s="8">
         <v>1</v>
@@ -7265,7 +7304,7 @@
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="F29" s="8"/>
     </row>
@@ -7277,16 +7316,16 @@
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F30" s="8"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="8" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C31" s="8">
         <v>1</v>
@@ -7295,16 +7334,16 @@
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="F31" s="8" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" s="8"/>
       <c r="B32" s="8" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C32" s="8">
         <v>1</v>
@@ -7313,16 +7352,16 @@
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="F32" s="8" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="8"/>
       <c r="B33" s="8" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C33" s="8">
         <v>1</v>
@@ -7331,27 +7370,27 @@
         <v>1</v>
       </c>
       <c r="E33" s="28" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="8" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C34" s="8">
         <v>2</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E34" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F34" s="8"/>
     </row>
@@ -7360,10 +7399,10 @@
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
       <c r="D35" s="17" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E35" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="F35" s="8"/>
     </row>
@@ -7375,7 +7414,7 @@
         <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="F36" s="8"/>
     </row>
@@ -7387,23 +7426,23 @@
         <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="F37" s="8"/>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="8"/>
       <c r="B38" s="8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C38" s="8">
         <v>2</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E38" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="F38" s="8"/>
     </row>
@@ -7412,10 +7451,10 @@
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
       <c r="D39" s="17" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E39" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="F39" s="8"/>
     </row>
@@ -7427,7 +7466,7 @@
         <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F40" s="8"/>
     </row>
@@ -7439,15 +7478,15 @@
         <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
     </row>
     <row r="42" spans="1:5">
       <c r="A42" s="8" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C42" s="8">
         <v>1</v>
@@ -7456,7 +7495,7 @@
         <v>0</v>
       </c>
       <c r="E42" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -7467,10 +7506,10 @@
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="F43" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7488,27 +7527,27 @@
     </row>
     <row r="46" spans="1:1">
       <c r="A46" s="23" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C47" s="8">
         <v>5</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E47" s="8"/>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="8" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B48" s="8" t="s">
         <v>124</v>
@@ -7517,16 +7556,16 @@
         <v>5</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E48" s="8"/>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="8" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C49" s="8">
         <v>1</v>
@@ -7535,7 +7574,7 @@
         <v>0</v>
       </c>
       <c r="E49" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -7546,24 +7585,24 @@
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C51" s="8">
         <v>2</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E51" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -7571,10 +7610,10 @@
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
       <c r="D52" s="17" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E52" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -7585,22 +7624,22 @@
         <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="8"/>
       <c r="B54" s="8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C54" s="8">
         <v>2</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E54" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -7608,10 +7647,10 @@
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
       <c r="D55" s="17" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E55" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -7622,7 +7661,7 @@
         <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -7633,43 +7672,43 @@
     </row>
     <row r="59" spans="1:1">
       <c r="A59" s="23" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C60" s="8">
         <v>2</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E60" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="D61" s="30" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E61" s="31" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="8" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C62" s="8">
         <v>1</v>
@@ -7678,7 +7717,7 @@
         <v>128</v>
       </c>
       <c r="E62" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -7689,7 +7728,7 @@
         <v>131</v>
       </c>
       <c r="E63" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
     </row>
     <row r="64" spans="4:5">
@@ -7701,20 +7740,20 @@
         <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
     </row>
     <row r="66" spans="1:1">
       <c r="A66" s="23" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="8" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C67" s="8">
         <v>1</v>
@@ -7723,7 +7762,7 @@
         <v>0</v>
       </c>
       <c r="E67" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -7734,20 +7773,20 @@
         <v>1</v>
       </c>
       <c r="E68" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="71" spans="1:1">
       <c r="A71" s="23" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="8" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C72" s="8">
         <v>1</v>
@@ -7756,7 +7795,7 @@
         <v>0</v>
       </c>
       <c r="E72" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -7767,13 +7806,13 @@
         <v>1</v>
       </c>
       <c r="E73" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
     </row>
     <row r="74" spans="1:5">
       <c r="A74" s="8"/>
       <c r="B74" s="8" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="C74" s="8">
         <v>1</v>
@@ -7782,7 +7821,7 @@
         <v>0</v>
       </c>
       <c r="E74" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -7793,13 +7832,13 @@
         <v>1</v>
       </c>
       <c r="E75" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
     </row>
     <row r="76" spans="1:5">
       <c r="A76" s="8"/>
       <c r="B76" s="8" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C76" s="8">
         <v>1</v>
@@ -7808,7 +7847,7 @@
         <v>0</v>
       </c>
       <c r="E76" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -7819,29 +7858,29 @@
         <v>1</v>
       </c>
       <c r="E77" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
     </row>
     <row r="79" spans="1:1">
       <c r="A79" s="23" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
     </row>
     <row r="80" spans="1:5">
       <c r="A80" s="8" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="C80" s="8">
         <v>2</v>
       </c>
       <c r="D80" s="17" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E80" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -7849,10 +7888,10 @@
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
       <c r="D81" s="17" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="E81" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -7863,7 +7902,7 @@
         <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -7874,7 +7913,7 @@
         <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -7964,7 +8003,7 @@
   <sheetData>
     <row r="1" ht="20.4" spans="2:8">
       <c r="B1" s="16" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C1" s="16"/>
       <c r="D1" s="16"/>
@@ -7975,28 +8014,28 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="8" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="I2" s="8"/>
       <c r="K2" s="8"/>
@@ -8008,22 +8047,22 @@
         <v>0</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="E3" s="8">
         <v>1</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H3" s="17" t="s">
         <v>127</v>
@@ -8044,7 +8083,7 @@
         <v>0</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E4" s="8">
         <v>1</v>
@@ -8074,7 +8113,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E5" s="8">
         <v>0</v>
@@ -8104,7 +8143,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="E6" s="8">
         <v>0</v>
@@ -8134,7 +8173,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="E7" s="8">
         <v>1</v>
@@ -8155,7 +8194,7 @@
     </row>
     <row r="8" ht="20.4" spans="2:13">
       <c r="B8" s="16" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C8" s="16"/>
       <c r="D8" s="16"/>
@@ -8171,18 +8210,18 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="8"/>
       <c r="E9" s="8" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="8"/>
@@ -8194,17 +8233,17 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="17" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="8" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F10" s="8">
         <v>1110</v>
@@ -8220,7 +8259,7 @@
     <row r="11" spans="1:13">
       <c r="A11" s="17"/>
       <c r="B11" s="17" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="8"/>
@@ -8239,7 +8278,7 @@
     <row r="12" spans="1:13">
       <c r="A12" s="17"/>
       <c r="B12" s="17" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="8"/>
@@ -8258,7 +8297,7 @@
     <row r="13" spans="1:13">
       <c r="A13" s="17"/>
       <c r="B13" s="17" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="8"/>
@@ -8279,11 +8318,11 @@
         <v>10</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="8" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="17" t="s">
@@ -8490,7 +8529,7 @@
   <sheetData>
     <row r="1" ht="20.4" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -8513,7 +8552,7 @@
     <row r="3" ht="20.4" spans="1:8">
       <c r="A3" s="1"/>
       <c r="B3" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -8525,7 +8564,7 @@
     <row r="4" ht="20.4" spans="1:8">
       <c r="A4" s="1"/>
       <c r="B4" s="3" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -8537,7 +8576,7 @@
     <row r="5" ht="20.4" spans="1:8">
       <c r="A5" s="1"/>
       <c r="B5" s="3" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -8549,7 +8588,7 @@
     <row r="6" ht="20.4" spans="1:8">
       <c r="A6" s="1"/>
       <c r="B6" s="3" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -8561,7 +8600,7 @@
     <row r="7" ht="20.4" spans="1:8">
       <c r="A7" s="1"/>
       <c r="B7" s="3" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -8572,22 +8611,22 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="4" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B8" s="4"/>
       <c r="C8" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="5" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -8595,7 +8634,7 @@
         <v>1</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -8603,10 +8642,10 @@
         <v>2</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -8614,10 +8653,10 @@
         <v>3</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -8625,50 +8664,50 @@
         <v>4</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
     </row>
     <row r="14" spans="2:3">
       <c r="B14" s="3" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C14" s="3"/>
     </row>
     <row r="15" spans="2:3">
       <c r="B15" s="3" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C15" s="3"/>
     </row>
     <row r="16" spans="2:3">
       <c r="B16" s="3" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C16" s="3"/>
     </row>
     <row r="17" spans="2:3">
       <c r="B17" s="3" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C17" s="3"/>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="5" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -8676,7 +8715,7 @@
         <v>1</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -8684,10 +8723,10 @@
         <v>2</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
     </row>
     <row r="22" ht="28.8" spans="1:3">
@@ -8695,24 +8734,24 @@
         <v>3</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
     </row>
     <row r="23" spans="2:3">
       <c r="B23" s="3" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C23" s="6"/>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="5" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C24" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
     </row>
     <row r="25" spans="1:2">
@@ -8720,15 +8759,15 @@
         <v>1</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="26" spans="1:2">
       <c r="A26" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -8736,29 +8775,29 @@
         <v>2</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="C27" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="28" spans="2:2">
       <c r="B28" s="3" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="4" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="5" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="30" spans="2:2">
       <c r="B30" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="31" spans="1:2">
@@ -8766,7 +8805,7 @@
         <v>1</v>
       </c>
       <c r="B31" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -8774,254 +8813,254 @@
         <v>2</v>
       </c>
       <c r="B32" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C32" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="33" spans="2:3">
       <c r="B33" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C33" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="34" spans="2:2">
       <c r="B34" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="4" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="5" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="C36" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="8" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D37" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="8"/>
       <c r="B38" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="D38" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="8"/>
       <c r="B39" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="8"/>
       <c r="B40" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="8"/>
       <c r="B41" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="42" spans="1:2">
       <c r="A42" s="9" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="B42" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="8"/>
       <c r="B43" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="D43" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="8"/>
       <c r="B44" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D44" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="8" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B45" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D45" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="8"/>
       <c r="D46" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="47" spans="1:2">
       <c r="A47" s="8" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B47" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="8"/>
       <c r="B48" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D48" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="8"/>
       <c r="B49" s="5" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D49" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="8"/>
       <c r="B50" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D50" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="8"/>
       <c r="D51" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="8" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B52" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D52" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="8"/>
       <c r="B53" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="D53" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="54" spans="1:2">
       <c r="A54" s="8"/>
       <c r="B54" s="5" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="55" spans="2:2">
       <c r="B55" s="5" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="56" spans="2:2">
       <c r="B56" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="5" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B58" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
     </row>
     <row r="59" spans="1:2">
       <c r="A59" s="5"/>
       <c r="B59" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
     </row>
     <row r="60" spans="1:2">
       <c r="A60" s="5"/>
       <c r="B60" s="10" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="61" spans="2:2">
       <c r="B61" s="10" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
     </row>
     <row r="62" spans="2:2">
       <c r="B62" s="10" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="63" spans="2:2">
       <c r="B63" s="3" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="64" spans="2:2">
@@ -9056,86 +9095,86 @@
     </row>
     <row r="75" ht="28.8" spans="1:4">
       <c r="A75" s="11" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C75" s="13" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D75" s="14" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
     </row>
     <row r="76" ht="38.4" spans="1:4">
       <c r="A76" s="11"/>
       <c r="B76" s="12"/>
       <c r="C76" s="13" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D76" s="15" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="9" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C77" s="12" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D77" s="12"/>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="9"/>
       <c r="B78" s="12" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D78" s="12"/>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="12"/>
       <c r="B79" s="12" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D79" s="12"/>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="9" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C80" s="12" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D80" s="12"/>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="9"/>
       <c r="B81" s="12" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D81" s="12"/>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="9"/>
       <c r="B82" s="12" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C82" s="12"/>
       <c r="D82" s="12"/>
@@ -9143,10 +9182,10 @@
     <row r="83" ht="19.2" spans="1:4">
       <c r="A83" s="12"/>
       <c r="B83" s="12" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C83" s="15" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D83" s="12"/>
     </row>
@@ -9154,7 +9193,7 @@
       <c r="A84" s="12"/>
       <c r="B84" s="12"/>
       <c r="C84" s="12" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D84" s="12"/>
     </row>
@@ -9162,7 +9201,7 @@
       <c r="A85" s="12"/>
       <c r="B85" s="12"/>
       <c r="C85" s="12" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D85" s="12"/>
     </row>
@@ -9170,25 +9209,25 @@
       <c r="A86" s="12"/>
       <c r="B86" s="12"/>
       <c r="C86" s="12" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D86" s="12"/>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="4" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B87" s="4"/>
       <c r="C87" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="88" spans="1:2">
       <c r="A88" s="8" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B88" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
     </row>
     <row r="89" spans="1:2">
@@ -9196,7 +9235,7 @@
         <v>1</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="90" spans="1:2">
@@ -9204,18 +9243,18 @@
         <v>2</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="8" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B92" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C92" s="3" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -9223,10 +9262,10 @@
         <v>1</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -9234,10 +9273,10 @@
         <v>2</v>
       </c>
       <c r="B94" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C94" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -9245,46 +9284,46 @@
         <v>3</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="97" spans="1:2">
       <c r="A97" s="4" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B97" s="4"/>
     </row>
     <row r="98" spans="2:2">
       <c r="B98" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="99" spans="2:2">
       <c r="B99" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="100" spans="2:2">
       <c r="B100" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="101" spans="2:2">
       <c r="B101" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="102" spans="2:2">
       <c r="B102" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
     </row>
     <row r="103" spans="2:2">
       <c r="B103" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
   </sheetData>
